--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1484689.972059449</v>
+        <v>1482432.950150366</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>153.3028562035765</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>121.1156257058475</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>115.578263943092</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>25.31590541686241</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>282.8225191874892</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>148.5491842911104</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>48.26767095054652</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>207.1225263696482</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571568</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0887386816663</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>212.5276795955103</v>
+        <v>51.31268624056756</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.1732544673552</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>13.11714055223979</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761693</v>
+        <v>101.3208278811439</v>
       </c>
       <c r="U19" t="n">
-        <v>172.7920613839005</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.2833216858772</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>91.08551991617597</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.53720539716763</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>88.89493377243181</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292623</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247756</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734035369</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>80.20970661361855</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>57.02146927219779</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2807,10 +2807,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292623</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247756</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734100762</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>61.08019102731307</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>139.3104541389495</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.7909664076557</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>175.1642798518868</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935316</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102218</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>111.0460701245764</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345253</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706222</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.242293397657</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430362</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877635</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172069</v>
+        <v>285.1555829172072</v>
       </c>
       <c r="V37" t="n">
-        <v>251.081388035422</v>
+        <v>251.0813880354223</v>
       </c>
       <c r="W37" t="n">
-        <v>285.466743048185</v>
+        <v>285.4667430481853</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006312</v>
+        <v>224.6534001006315</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433886</v>
+        <v>98.44591140433779</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145565</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1130.934501327942</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>761.9719843875307</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>761.9719843875307</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>376.1837317892865</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2519.781385684223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2301.146718656286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2047.384933294377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1716.322045950807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1363.553390680693</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1521.073833303754</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1130.934501327942</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673418</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,22 +4437,22 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.6741383092202</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C4" t="n">
-        <v>352.6741383092202</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D4" t="n">
-        <v>352.6741383092202</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E4" t="n">
-        <v>352.6741383092202</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="T4" t="n">
-        <v>352.6741383092202</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="U4" t="n">
-        <v>352.6741383092202</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="V4" t="n">
-        <v>352.6741383092202</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="W4" t="n">
-        <v>352.6741383092202</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="X4" t="n">
-        <v>352.6741383092202</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.6741383092202</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1470.569074795014</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1470.569074795014</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1470.569074795014</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1084.78082219677</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533131</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733115</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224064</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2547.099409916091</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2547.099409916091</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2293.337624554182</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1962.274737210612</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.506081940498</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1609.506081940498</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1857.168914859136</v>
       </c>
     </row>
     <row r="6">
@@ -4635,19 +4635,19 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4662,7 +4662,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U7" t="n">
-        <v>422.6486545462877</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V7" t="n">
-        <v>422.6486545462877</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W7" t="n">
-        <v>422.6486545462877</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X7" t="n">
-        <v>422.6486545462877</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1491.915471247701</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>764.6872557005393</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1878.515311311823</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.2948950230952</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>181.3053441250779</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
     <row r="11">
@@ -5018,49 +5018,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,16 +5148,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.6979017231758</v>
+        <v>658.8294814682021</v>
       </c>
       <c r="C13" t="n">
-        <v>686.6979017231758</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="D13" t="n">
-        <v>536.5812623108401</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5215,7 +5215,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
         <v>1956.343466104703</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674229</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799872</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593985</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570246</v>
+        <v>931.4530568143257</v>
       </c>
       <c r="X13" t="n">
-        <v>686.6979017231758</v>
+        <v>879.6220606117322</v>
       </c>
       <c r="Y13" t="n">
-        <v>686.6979017231758</v>
+        <v>658.8294814682021</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,28 +5355,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460.4910241367926</v>
+        <v>679.6423705955727</v>
       </c>
       <c r="C16" t="n">
-        <v>460.4910241367926</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="D16" t="n">
-        <v>460.4910241367926</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="E16" t="n">
-        <v>460.4910241367926</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="F16" t="n">
-        <v>460.4910241367926</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121914</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5434,7 +5434,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5461,25 +5461,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
         <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783401</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783401</v>
+        <v>874.5404723472668</v>
       </c>
       <c r="X16" t="n">
-        <v>681.2836032803227</v>
+        <v>861.2908354258125</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.4910241367926</v>
+        <v>861.2908354258125</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,25 +5513,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846824</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518748</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,28 +5592,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.6138567886372</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C19" t="n">
-        <v>245.6776738607302</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1853.999195517689</v>
       </c>
       <c r="U19" t="n">
-        <v>1368.353530759742</v>
+        <v>1564.896328643333</v>
       </c>
       <c r="V19" t="n">
-        <v>1113.669042553855</v>
+        <v>1310.211840437446</v>
       </c>
       <c r="W19" t="n">
-        <v>824.2518725168943</v>
+        <v>1020.794670400485</v>
       </c>
       <c r="X19" t="n">
-        <v>596.2623216188769</v>
+        <v>792.805119502468</v>
       </c>
       <c r="Y19" t="n">
-        <v>596.2623216188769</v>
+        <v>572.0125403589377</v>
       </c>
     </row>
     <row r="20">
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>729.2066409118285</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C22" t="n">
-        <v>560.2704579839216</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>333.7837969034416</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,49 +5911,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894823</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>895.1493900894823</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,31 +5987,31 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846823</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518747</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.6138567886372</v>
+        <v>656.6259356382594</v>
       </c>
       <c r="C25" t="n">
-        <v>245.6776738607302</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208124</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838517</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X25" t="n">
-        <v>709.6864413838517</v>
+        <v>928.0672628648949</v>
       </c>
       <c r="Y25" t="n">
-        <v>488.8938622403216</v>
+        <v>838.2744004684992</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277723</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563071</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811479</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483402</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542183</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232735</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6288,43 +6288,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193579</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320224</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008791</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426845</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902947</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549546</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>491.7343098287654</v>
+        <v>300.0484256555952</v>
       </c>
       <c r="C28" t="n">
-        <v>322.7981269008585</v>
+        <v>300.0484256555952</v>
       </c>
       <c r="D28" t="n">
-        <v>322.7981269008585</v>
+        <v>300.0484256555952</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7981269008585</v>
+        <v>300.0484256555952</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305367</v>
+        <v>153.1584781576848</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305367</v>
+        <v>153.1584781576848</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>153.1584781576848</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442059</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.3434661047</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.576850674226</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.47398379987</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593983</v>
+        <v>999.1036114208129</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570224</v>
+        <v>709.6864413838523</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590051</v>
+        <v>481.696890485835</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.3827746590051</v>
+        <v>481.696890485835</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277723</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563071</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811479</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483402</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542183</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232735</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193579</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320224</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008791</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426845</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>771.1140605227921</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C31" t="n">
-        <v>602.1778775948852</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D31" t="n">
-        <v>452.0612381825495</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E31" t="n">
-        <v>304.1481446001563</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>157.258197102246</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6619,52 +6619,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442057</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927014</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931527</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501053</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626696</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208094</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W31" t="n">
-        <v>999.1036114208094</v>
+        <v>1339.174732024959</v>
       </c>
       <c r="X31" t="n">
-        <v>771.1140605227921</v>
+        <v>1111.185181126942</v>
       </c>
       <c r="Y31" t="n">
-        <v>771.1140605227921</v>
+        <v>890.3926019834121</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468568</v>
@@ -6777,19 +6777,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,22 +6807,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>392.5676213586405</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C34" t="n">
-        <v>392.5676213586405</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D34" t="n">
-        <v>242.4509819463048</v>
+        <v>508.5026418377233</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,46 +6862,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1587.723965919522</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.7880996267</v>
+        <v>1298.621099045166</v>
       </c>
       <c r="V34" t="n">
-        <v>1253.7880996267</v>
+        <v>1298.621099045166</v>
       </c>
       <c r="W34" t="n">
-        <v>964.3709295897393</v>
+        <v>1009.203929008206</v>
       </c>
       <c r="X34" t="n">
-        <v>736.3813786917219</v>
+        <v>1009.203929008206</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.5887995481918</v>
+        <v>1009.203929008206</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089883</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7032,34 +7032,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>688.0569754988447</v>
+        <v>227.1189065672399</v>
       </c>
       <c r="C37" t="n">
-        <v>520.1877171046812</v>
+        <v>227.1189065672399</v>
       </c>
       <c r="D37" t="n">
-        <v>520.1877171046812</v>
+        <v>227.1189065672399</v>
       </c>
       <c r="E37" t="n">
-        <v>408.0199695040989</v>
+        <v>227.1189065672399</v>
       </c>
       <c r="F37" t="n">
-        <v>262.196946539932</v>
+        <v>227.1189065672399</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>227.1189065672399</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308519</v>
+        <v>141.7293596308515</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152501</v>
+        <v>346.7622353152495</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992682</v>
+        <v>664.3677264992672</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834339</v>
+        <v>1009.570464834338</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275726</v>
+        <v>1352.024534275724</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931661</v>
+        <v>1652.399825931659</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100842</v>
+        <v>1886.05301910084</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988879</v>
+        <v>1964.709007988876</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988879</v>
+        <v>1875.945475280147</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988879</v>
+        <v>1685.326515640716</v>
       </c>
       <c r="T37" t="n">
-        <v>1964.709007988879</v>
+        <v>1464.626824743986</v>
       </c>
       <c r="U37" t="n">
-        <v>1676.673065648266</v>
+        <v>1176.590882403372</v>
       </c>
       <c r="V37" t="n">
-        <v>1423.055501976123</v>
+        <v>922.9733187312282</v>
       </c>
       <c r="W37" t="n">
-        <v>1134.705256472905</v>
+        <v>634.6230732280108</v>
       </c>
       <c r="X37" t="n">
-        <v>907.7826301086315</v>
+        <v>407.7004468637365</v>
       </c>
       <c r="Y37" t="n">
-        <v>688.0569754988447</v>
+        <v>407.7004468637365</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7178,13 +7178,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7254,7 +7254,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320243</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215045</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416709</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774084</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430886</v>
       </c>
       <c r="F40" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499225</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036709</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,16 +7588,16 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
         <v>1725.799256195774</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,52 +7646,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7834,10 +7834,10 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720727</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270198</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951795</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>29.61882225792135</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>29.61882225792044</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476932</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.539269126193403e-12</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476932</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10826,16 +10826,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277306</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,16 +11072,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>13.18197579352687</v>
+        <v>174.3969691484696</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>45.85255379167309</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>212.5925148367974</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>118.2281213950253</v>
       </c>
       <c r="U19" t="n">
-        <v>113.4197768217124</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.54865849606006</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>54.33552810675528</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.2947747847697</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>129.689719579663</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>65.21134140931269</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.3524204098382</v>
+        <v>39.3309511376403</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004747</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>104.9456172317151</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.3524204098382</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004747</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>147.2125441976415</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58.04101377428157</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>44.38466942428245</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935313</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102222</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298064</v>
+        <v>147.5592177298067</v>
       </c>
       <c r="E37" t="n">
-        <v>34.33163723358673</v>
+        <v>145.3777073581635</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345256</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706225</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259148</v>
+        <v>13.45646622825791</v>
       </c>
       <c r="I37" t="n">
-        <v>95.2961651214321</v>
+        <v>95.29616512143244</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164132</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430359</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877632</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636891</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>930643.6882295714</v>
+        <v>930643.6882295713</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>930643.6882295714</v>
+        <v>930643.6882295713</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>931338.7106313747</v>
+        <v>931338.7106313745</v>
       </c>
     </row>
     <row r="14">
@@ -26314,13 +26314,13 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185697</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="E2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="F2" t="n">
         <v>476498.1442643797</v>
@@ -26329,19 +26329,19 @@
         <v>476498.1442643799</v>
       </c>
       <c r="H2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="I2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="J2" t="n">
-        <v>476498.14426438</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="K2" t="n">
-        <v>476498.14426438</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="L2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="M2" t="n">
         <v>476860.7646479293</v>
@@ -26350,10 +26350,10 @@
         <v>492625.0619185696</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185694</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925916</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.300672010984272e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696696</v>
+        <v>130487.3190696694</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414925</v>
+        <v>36735.10506414965</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918986</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918988</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231919006</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231919003</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811472</v>
+        <v>18496.05294811463</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26488,19 +26488,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955467</v>
+        <v>96472.31657955462</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165122</v>
+        <v>-363550.5822165121</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980322</v>
+        <v>226417.2969980324</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980324</v>
+        <v>226417.2969980325</v>
       </c>
       <c r="E6" t="n">
-        <v>-365411.2803019304</v>
+        <v>-365478.4757921563</v>
       </c>
       <c r="F6" t="n">
-        <v>361966.1336914761</v>
+        <v>361898.9382012504</v>
       </c>
       <c r="G6" t="n">
-        <v>361966.1336914764</v>
+        <v>361898.9382012505</v>
       </c>
       <c r="H6" t="n">
-        <v>361966.1336914762</v>
+        <v>361898.9382012505</v>
       </c>
       <c r="I6" t="n">
-        <v>361966.1336914763</v>
+        <v>361898.9382012505</v>
       </c>
       <c r="J6" t="n">
-        <v>185542.9144988847</v>
+        <v>185475.7190086576</v>
       </c>
       <c r="K6" t="n">
-        <v>361966.1336914764</v>
+        <v>361898.9382012503</v>
       </c>
       <c r="L6" t="n">
-        <v>361966.1336914749</v>
+        <v>361898.9382012505</v>
       </c>
       <c r="M6" t="n">
-        <v>231405.0760505903</v>
+        <v>231339.3914786296</v>
       </c>
       <c r="N6" t="n">
-        <v>321951.6325429093</v>
+        <v>321951.6325429089</v>
       </c>
       <c r="O6" t="n">
-        <v>358686.7376070587</v>
+        <v>358686.7376070588</v>
       </c>
       <c r="P6" t="n">
-        <v>358686.7376070586</v>
+        <v>358686.7376070583</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,10 +26759,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018657</v>
+        <v>45.91888133018686</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26981,19 +26981,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.147723711475192e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>253.5731895381349</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.30008710312397</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29.84278407983926</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538051894</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>124.0535265542222</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>25.86652851786118</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,10 +27825,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>238.0142032914312</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>174.8078437026136</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359958</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>92.4959146704285</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.670425085626768e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.098382110211766e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288406002</v>
+        <v>1.056255288405682</v>
       </c>
     </row>
     <row r="38">
@@ -30232,13 +30232,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681591</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.8670377284466</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953982</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.28113760038</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623182</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574981</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095011</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099046</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746403</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781682</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806935</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451117</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752244</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026434</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138788</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233465</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837915</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238309</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898482</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742009</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098815</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316427</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023085996</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802165</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712201</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.2475727055303</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112282</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681591</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.8670377284466</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953982</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.28113760038</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623182</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574981</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095011</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099046</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746403</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781682</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806935</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451117</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752244</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026434</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138788</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233465</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837915</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002988</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238309</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898482</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742009</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098815</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316427</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023085996</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802165</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712201</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.2475727055303</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112282</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181299</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730645</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226387</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
@@ -35814,7 +35814,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226397</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502535</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>485.2089366502526</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,10 +36525,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407857</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265642</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923309</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302254</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129101</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359111</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908533</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636234</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152068</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597674</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609561</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340046</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013282</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004582</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127267</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.578416613066</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701976</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934833</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226393</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.95707114511</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789337</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407857</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265642</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923309</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302254</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129101</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359111</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908533</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636234</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152068</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597674</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609561</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340046</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013282</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004582</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859686</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127267</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.578416613066</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701976</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934833</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226393</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.95707114511</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789337</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147223</v>
+        <v>46.63467190147188</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327256</v>
+        <v>207.1039148327252</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586041</v>
+        <v>320.8136274586037</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818899</v>
+        <v>348.6896346818895</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559461</v>
+        <v>345.9132014559457</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110458</v>
+        <v>303.4093855110454</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335164</v>
+        <v>236.0133264335161</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629966</v>
+        <v>79.45049382629931</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37704,13 +37704,13 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200628</v>
+        <v>559.3763608778464</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37792,16 +37792,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,16 +38181,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
